--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB1C649-2434-48A4-A8AE-D57DD09B732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B1246-697F-48B9-86A2-133039D9CBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7483" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7485" uniqueCount="275">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -910,6 +910,12 @@
   <si>
     <t>Bester Kämpfer am Piratenschiff  - 50 Armed  45 Dodge 400 hp</t>
   </si>
+  <si>
+    <t>Fredan</t>
+  </si>
+  <si>
+    <t>Elitekämpfer der Rah Kari</t>
+  </si>
 </sst>
 </file>
 
@@ -1242,10 +1248,10 @@
   <sheetPr codeName="Tabelle1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F48" sqref="E48:F48"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1683,6 +1689,14 @@
       </c>
       <c r="B55" s="3" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78B965E-00B5-48BC-9281-874656AFE399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF65CABF-0775-4506-B60D-650F6F4B35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="24" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="52" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,8 @@
     <sheet name="OrkSehrStarkSchwer" sheetId="47" r:id="rId59"/>
     <sheet name="Ork Mittel" sheetId="45" r:id="rId60"/>
     <sheet name="Thorius" sheetId="49" r:id="rId61"/>
-    <sheet name="SeevolkEinfach" sheetId="59" r:id="rId62"/>
-    <sheet name="Unwerter" sheetId="51" r:id="rId63"/>
-    <sheet name="Animalus" sheetId="46" r:id="rId64"/>
+    <sheet name="Unwerter" sheetId="51" r:id="rId62"/>
+    <sheet name="Animalus" sheetId="46" r:id="rId63"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7848" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7725" uniqueCount="275">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -833,9 +832,6 @@
     <t>ein sehr starker Ork</t>
   </si>
   <si>
-    <t>Slerok</t>
-  </si>
-  <si>
     <t>Unwerter</t>
   </si>
   <si>
@@ -918,6 +914,9 @@
   </si>
   <si>
     <t>Nakai</t>
+  </si>
+  <si>
+    <t>Thorius</t>
   </si>
 </sst>
 </file>
@@ -1605,90 +1604,90 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
       <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +1986,7 @@
         <v>125</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>126</v>
@@ -2257,7 +2256,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>168</v>
@@ -3102,7 +3101,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>168</v>
@@ -19693,7 +19692,7 @@
         <v>148</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>149</v>
@@ -21755,7 +21754,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -22308,7 +22307,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>168</v>
@@ -22599,7 +22598,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -33869,7 +33868,7 @@
         <v>137</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>139</v>
@@ -38120,7 +38119,7 @@
         <v>148</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>149</v>
@@ -45852,7 +45851,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F9"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -48142,7 +48141,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -48660,7 +48659,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>168</v>
@@ -48891,760 +48890,6 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23D7A21-A5CF-4A73-BCC6-DD30485A1C23}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="10">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="10">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="10">
-        <v>250</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="10">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="10">
-        <v>35</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="10">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="10">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="10">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="10">
-        <f>$F$2*0.2</f>
-        <v>50</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="10">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="10">
-        <v>34</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="10">
-        <f>$F$2*0.7</f>
-        <v>175</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="10">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="10">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="0">$F$2*0.2</f>
-        <v>50</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="10">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="10">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="10">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="1">$F$2*0.25</f>
-        <v>62.5</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="10">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="10">
-        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>15</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="10">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="10">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="10">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="10">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="10">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="10">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="10">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="10">
-        <v>48</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="10">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="10">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="10">
-        <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="10">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="10">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="10">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="10">
-        <v>24</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="10">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>10</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="10">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="10">
-        <v>12</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="10">
-        <f>ROUNDUP(B8+B9,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="10">
-        <v>20</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="10">
-        <v>40</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="10">
-        <f t="shared" ref="B21:B28" si="2">F2</f>
-        <v>250</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="10">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="10">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="10">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="10">
-        <v>20</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="10">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="10">
-        <v>20</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="10">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="10">
-        <v>20</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="10">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="10">
-        <v>20</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="10">
-        <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="10">
-        <v>20</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="10">
-        <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F262E66E-57BC-46E5-BDEB-09F2B19F8909}">
   <sheetPr codeName="Tabelle50">
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -50166,7 +49411,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>168</v>
@@ -50396,15 +49641,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Tabelle51">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -50506,7 +49751,7 @@
       <c r="E4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="12">
         <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -50532,7 +49777,7 @@
       <c r="E5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="12">
         <v>170</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -50558,7 +49803,7 @@
       <c r="E6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
         <v>241</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -50584,7 +49829,7 @@
       <c r="E7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="12" t="s">
         <v>241</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -50610,7 +49855,7 @@
       <c r="E8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="12">
         <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -50636,7 +49881,7 @@
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="12">
         <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -50929,7 +50174,7 @@
       <c r="A21" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="12">
         <f t="shared" ref="B21:B28" si="0">F2</f>
         <v>250</v>
       </c>
@@ -50956,7 +50201,7 @@
       <c r="A22" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -50983,7 +50228,7 @@
       <c r="A23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -51010,7 +50255,7 @@
       <c r="A24" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -51037,7 +50282,7 @@
       <c r="A25" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
@@ -51060,7 +50305,7 @@
       <c r="A26" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
@@ -51083,7 +50328,7 @@
       <c r="A27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -51104,7 +50349,7 @@
       <c r="A28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -52328,7 +51573,7 @@
         <v>148</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>149</v>
@@ -53255,7 +52500,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>168</v>

--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685816A4-6DF6-410B-94D1-197D00B27096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8F7E1-0649-459E-A1FC-053FD498A329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -1902,9 +1902,9 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75">
+    <row r="36" spans="1:2" ht="12.7">
       <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75">
+    <row r="37" spans="1:2" ht="12.7">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75">
+    <row r="38" spans="1:2" ht="12.7">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75">
+    <row r="39" spans="1:2" ht="12.7">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75">
+    <row r="40" spans="1:2" ht="12.7">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75">
+    <row r="41" spans="1:2" ht="12.7">
       <c r="A41" s="3" t="s">
         <v>260</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75">
+    <row r="42" spans="1:2" ht="12.7">
       <c r="A42" s="3" t="s">
         <v>262</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75">
+    <row r="43" spans="1:2" ht="12.7">
       <c r="A43" s="3" t="s">
         <v>263</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75">
+    <row r="44" spans="1:2" ht="12.7">
       <c r="A44" s="3" t="s">
         <v>279</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75">
+    <row r="45" spans="1:2" ht="12.7">
       <c r="A45" s="3" t="s">
         <v>77</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75">
+    <row r="46" spans="1:2" ht="12.7">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
@@ -2413,9 +2413,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -3196,7 +3196,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -4023,7 +4023,7 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -4866,7 +4866,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -5691,7 +5691,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -6532,7 +6532,7 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -7353,7 +7353,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -8178,7 +8178,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -9016,12 +9016,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.703125" defaultRowHeight="12.7"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -9746,7 +9746,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -9762,7 +9762,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="14.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9802,13 +9802,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.703125" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -10302,7 +10302,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -10517,7 +10517,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="14.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -10596,9 +10596,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -11431,12 +11431,12 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="6" max="7" width="15.28515625" customWidth="1"/>
+    <col min="6" max="7" width="15.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -11547,7 +11547,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -12143,7 +12143,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -12159,7 +12159,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -12175,7 +12175,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -12208,10 +12208,10 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
@@ -12291,7 +12291,7 @@
         <v>95</v>
       </c>
       <c r="F3" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>96</v>
@@ -13037,11 +13037,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -13118,7 +13118,7 @@
         <v>95</v>
       </c>
       <c r="F3" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>96</v>
@@ -13864,7 +13864,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -14700,11 +14700,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -15527,7 +15527,7 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -16352,7 +16352,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5"/>
@@ -17170,9 +17170,9 @@
       <selection activeCell="F13" sqref="F13:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -17996,7 +17996,7 @@
       <selection activeCell="F17" sqref="F17:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -18818,7 +18818,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -19637,7 +19637,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -20388,7 +20388,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -21211,7 +21211,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -22034,7 +22034,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -22859,7 +22859,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -23683,9 +23683,9 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -23741,7 +23741,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -23824,7 +23824,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -23852,7 +23852,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -23880,7 +23880,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -23908,7 +23908,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -23991,7 +23991,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -24018,7 +24018,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -24045,7 +24045,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -24072,7 +24072,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -24099,7 +24099,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -24153,7 +24153,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -24179,7 +24179,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -24228,7 +24228,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -24254,7 +24254,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -24305,7 +24305,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -24331,7 +24331,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -24357,7 +24357,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -24379,7 +24379,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -24397,7 +24397,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -24413,7 +24413,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -24428,7 +24428,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="14.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -24439,7 +24439,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="13">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -24470,7 +24470,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -25295,7 +25295,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -26118,7 +26118,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -26963,7 +26963,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -27790,7 +27790,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -28612,12 +28612,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <cols>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -28673,7 +28673,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -28700,7 +28700,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -28728,7 +28728,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -28756,7 +28756,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -28784,7 +28784,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -28812,7 +28812,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -28840,7 +28840,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -28868,7 +28868,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -28896,7 +28896,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -28923,7 +28923,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -28950,7 +28950,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -28977,7 +28977,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -29031,7 +29031,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -29057,7 +29057,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -29083,7 +29083,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -29109,7 +29109,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -29135,7 +29135,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -29160,7 +29160,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -29189,7 +29189,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -29216,7 +29216,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -29244,7 +29244,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -29272,7 +29272,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -29300,7 +29300,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -29324,7 +29324,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -29340,7 +29340,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -29356,7 +29356,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -29392,7 +29392,7 @@
       <selection activeCell="F17" sqref="F17:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -30218,7 +30218,7 @@
       <selection activeCell="F17" sqref="F17:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -31042,7 +31042,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -31865,7 +31865,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -32688,7 +32688,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -33511,7 +33511,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -34334,7 +34334,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -35158,7 +35158,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -35981,7 +35981,7 @@
       <selection activeCell="F28" sqref="F17:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -36805,7 +36805,7 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -37627,9 +37627,9 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -37658,7 +37658,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -37685,7 +37685,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -37712,7 +37712,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -37740,7 +37740,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -37768,7 +37768,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -37796,7 +37796,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -37824,7 +37824,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -37852,7 +37852,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -37880,7 +37880,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -37908,7 +37908,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -37935,7 +37935,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -37962,7 +37962,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -37989,7 +37989,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -38016,7 +38016,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -38043,7 +38043,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -38069,7 +38069,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -38095,7 +38095,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -38121,7 +38121,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -38147,7 +38147,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -38172,7 +38172,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -38201,7 +38201,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -38228,7 +38228,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -38256,7 +38256,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -38284,7 +38284,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -38312,7 +38312,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -38336,7 +38336,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -38352,7 +38352,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -38368,7 +38368,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -38404,7 +38404,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -39226,7 +39226,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -40051,7 +40051,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -40874,7 +40874,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -41691,9 +41691,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -42516,7 +42516,7 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -43329,7 +43329,7 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -44167,7 +44167,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -45004,7 +45004,7 @@
       <selection activeCell="F13" sqref="F13:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -45827,7 +45827,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -46649,9 +46649,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -46680,7 +46680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -46707,7 +46707,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -46734,7 +46734,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -46762,7 +46762,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -46790,7 +46790,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -46818,7 +46818,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -46846,7 +46846,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -46874,7 +46874,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -46902,7 +46902,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -46930,7 +46930,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -46957,7 +46957,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -46984,7 +46984,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -47011,7 +47011,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -47038,7 +47038,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -47065,7 +47065,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -47091,7 +47091,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -47117,7 +47117,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -47143,7 +47143,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -47169,7 +47169,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -47194,7 +47194,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -47223,7 +47223,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -47250,7 +47250,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -47278,7 +47278,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -47306,7 +47306,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -47334,7 +47334,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -47358,7 +47358,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -47374,7 +47374,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -47390,7 +47390,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -47426,7 +47426,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -48251,7 +48251,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -49076,7 +49076,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -49801,7 +49801,7 @@
       <selection activeCell="F13" sqref="F13:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -50527,12 +50527,12 @@
       <selection activeCell="F13" sqref="F13:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <cols>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -50561,7 +50561,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -50587,7 +50587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -50613,7 +50613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -50640,7 +50640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -50667,7 +50667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -50694,7 +50694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -50721,7 +50721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -50748,7 +50748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -50775,7 +50775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -50802,7 +50802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -50828,7 +50828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -50854,7 +50854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -50906,7 +50906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -50930,7 +50930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -50957,7 +50957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -50982,7 +50982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -51007,7 +51007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -51032,7 +51032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -51054,7 +51054,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -51079,7 +51079,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -51103,7 +51103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -51128,7 +51128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -51153,7 +51153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -51178,7 +51178,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -51199,7 +51199,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -51214,7 +51214,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -51229,7 +51229,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -51264,7 +51264,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -51998,7 +51998,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -52736,7 +52736,7 @@
       <selection activeCell="F13" sqref="F13:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -53470,7 +53470,7 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -54204,7 +54204,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -54937,9 +54937,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -54968,7 +54968,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -55022,7 +55022,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -55050,7 +55050,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -55078,7 +55078,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -55106,7 +55106,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -55134,7 +55134,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -55162,7 +55162,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -55190,7 +55190,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -55218,7 +55218,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -55245,7 +55245,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -55272,7 +55272,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -55299,7 +55299,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -55326,7 +55326,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -55353,7 +55353,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -55379,7 +55379,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -55407,7 +55407,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -55435,7 +55435,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -55463,7 +55463,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -55488,7 +55488,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -55517,7 +55517,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -55544,7 +55544,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -55572,7 +55572,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -55600,7 +55600,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -55628,7 +55628,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -55652,7 +55652,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -55668,7 +55668,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -55684,7 +55684,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -55720,7 +55720,7 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -56442,7 +56442,7 @@
       <selection activeCell="F16" sqref="F16:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -57264,14 +57264,14 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="15"/>
-    <col min="5" max="5" width="15.42578125" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="4" width="8.703125" style="15"/>
+    <col min="5" max="5" width="15.41015625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -57300,7 +57300,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -57327,7 +57327,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -57354,7 +57354,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -57382,7 +57382,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -57410,7 +57410,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -57438,7 +57438,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -57466,7 +57466,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -57494,7 +57494,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -57522,7 +57522,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -57550,7 +57550,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -57577,7 +57577,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -57604,7 +57604,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -57631,7 +57631,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -57658,7 +57658,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -57685,7 +57685,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -57711,7 +57711,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -57737,7 +57737,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -57763,7 +57763,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -57789,7 +57789,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -57812,7 +57812,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -57837,7 +57837,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -57862,7 +57862,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -57888,7 +57888,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -57914,7 +57914,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -57940,7 +57940,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -57962,7 +57962,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -57979,7 +57979,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -57995,7 +57995,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -58028,15 +58028,15 @@
       <selection activeCell="F27" sqref="F17:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="5" width="8.7109375" style="15"/>
-    <col min="6" max="6" width="12.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="5" width="8.703125" style="15"/>
+    <col min="6" max="6" width="12.87890625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.703125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -58065,7 +58065,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -58119,7 +58119,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -58147,7 +58147,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -58175,7 +58175,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -58203,7 +58203,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -58231,7 +58231,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -58259,7 +58259,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -58287,7 +58287,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -58315,7 +58315,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -58342,7 +58342,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -58369,7 +58369,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -58396,7 +58396,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -58423,7 +58423,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -58450,7 +58450,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -58478,7 +58478,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -58504,7 +58504,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -58530,7 +58530,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -58556,7 +58556,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -58579,7 +58579,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -58604,7 +58604,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -58629,7 +58629,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -58655,7 +58655,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -58681,7 +58681,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -58707,7 +58707,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -58729,7 +58729,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -58746,7 +58746,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -58762,7 +58762,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -58795,12 +58795,12 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -58829,7 +58829,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -58856,7 +58856,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -58883,7 +58883,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -58911,7 +58911,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -58939,7 +58939,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -58967,7 +58967,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -58995,7 +58995,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -59023,7 +59023,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -59051,7 +59051,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -59079,7 +59079,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -59106,7 +59106,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -59133,7 +59133,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -59160,7 +59160,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -59185,7 +59185,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -59210,7 +59210,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -59236,7 +59236,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -59262,7 +59262,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -59288,7 +59288,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -59314,7 +59314,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -59337,7 +59337,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -59362,7 +59362,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -59414,7 +59414,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -59440,7 +59440,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -59466,7 +59466,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -59488,7 +59488,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -59505,7 +59505,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -59521,7 +59521,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -59554,12 +59554,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -59588,7 +59588,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -59615,7 +59615,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -59642,7 +59642,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -59670,7 +59670,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -59698,7 +59698,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -59726,7 +59726,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -59754,7 +59754,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -59782,7 +59782,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -59810,7 +59810,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -59838,7 +59838,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -59865,7 +59865,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -59919,7 +59919,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -59946,7 +59946,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -59973,7 +59973,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -60001,7 +60001,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -60027,7 +60027,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -60053,7 +60053,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -60079,7 +60079,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -60102,7 +60102,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -60127,7 +60127,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -60152,7 +60152,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -60178,7 +60178,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -60204,7 +60204,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -60230,7 +60230,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -60252,7 +60252,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -60269,7 +60269,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -60285,7 +60285,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -60318,12 +60318,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -60352,7 +60352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -60379,7 +60379,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -60406,7 +60406,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -60434,7 +60434,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -60462,7 +60462,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -60490,7 +60490,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -60518,7 +60518,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -60546,7 +60546,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -60574,7 +60574,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -60602,7 +60602,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -60629,7 +60629,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -60656,7 +60656,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -60683,7 +60683,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -60708,7 +60708,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -60733,7 +60733,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -60759,7 +60759,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -60785,7 +60785,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -60811,7 +60811,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -60837,7 +60837,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -60860,7 +60860,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -60886,7 +60886,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -60911,7 +60911,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -60937,7 +60937,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -60963,7 +60963,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -60989,7 +60989,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -61011,7 +61011,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -61028,7 +61028,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -61044,7 +61044,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -61077,12 +61077,12 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -61111,7 +61111,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -61138,7 +61138,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -61165,7 +61165,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -61193,7 +61193,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -61221,7 +61221,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -61249,7 +61249,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -61277,7 +61277,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -61305,7 +61305,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -61333,7 +61333,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -61361,7 +61361,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -61388,7 +61388,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -61415,7 +61415,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -61442,7 +61442,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -61469,7 +61469,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -61496,7 +61496,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -61522,7 +61522,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -61550,7 +61550,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -61578,7 +61578,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -61606,7 +61606,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -61631,7 +61631,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -61658,7 +61658,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -61685,7 +61685,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -61713,7 +61713,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -61741,7 +61741,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -61769,7 +61769,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -61793,7 +61793,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -61810,7 +61810,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -61826,7 +61826,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -61859,12 +61859,12 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -61893,7 +61893,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -61920,7 +61920,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -61947,7 +61947,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -61975,7 +61975,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -62003,7 +62003,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -62031,7 +62031,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -62059,7 +62059,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -62087,7 +62087,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -62115,7 +62115,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -62143,7 +62143,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -62170,7 +62170,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -62197,7 +62197,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -62224,7 +62224,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -62251,7 +62251,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -62278,7 +62278,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -62306,7 +62306,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -62334,7 +62334,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -62362,7 +62362,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -62390,7 +62390,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -62415,7 +62415,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -62442,7 +62442,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -62469,7 +62469,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -62497,7 +62497,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -62525,7 +62525,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -62553,7 +62553,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -62577,7 +62577,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -62594,7 +62594,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -62610,7 +62610,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -62643,12 +62643,12 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -62677,7 +62677,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -62704,7 +62704,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -62731,7 +62731,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -62759,7 +62759,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -62787,7 +62787,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -62815,7 +62815,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -62843,7 +62843,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -62871,7 +62871,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -62899,7 +62899,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -62927,7 +62927,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -62954,7 +62954,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -62981,7 +62981,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -63008,7 +63008,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -63035,7 +63035,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -63062,7 +63062,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -63090,7 +63090,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -63118,7 +63118,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -63146,7 +63146,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -63174,7 +63174,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -63199,7 +63199,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -63226,7 +63226,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -63253,7 +63253,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -63281,7 +63281,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -63309,7 +63309,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -63337,7 +63337,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -63361,7 +63361,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -63378,7 +63378,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -63394,7 +63394,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -63427,9 +63427,9 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -63458,7 +63458,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -63485,7 +63485,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -63512,7 +63512,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -63540,7 +63540,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -63568,7 +63568,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -63596,7 +63596,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -63624,7 +63624,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -63652,7 +63652,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -63680,7 +63680,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -63735,7 +63735,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -63762,7 +63762,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -63789,7 +63789,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -63816,7 +63816,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -63843,7 +63843,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -63869,7 +63869,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -63897,7 +63897,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -63925,7 +63925,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -63953,7 +63953,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -63978,7 +63978,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -64007,7 +64007,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -64034,7 +64034,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -64062,7 +64062,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -64090,7 +64090,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -64118,7 +64118,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -64142,7 +64142,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -64158,7 +64158,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -64174,7 +64174,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -64207,19 +64207,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15"/>
-    <col min="2" max="2" width="17.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="15"/>
-    <col min="4" max="4" width="16.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="15"/>
-    <col min="6" max="6" width="20.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="1" width="8.703125" style="15"/>
+    <col min="2" max="2" width="17.29296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.703125" style="15"/>
+    <col min="4" max="4" width="16.29296875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" style="15"/>
+    <col min="6" max="6" width="20.703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.703125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -64248,7 +64248,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -64275,7 +64275,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -64302,7 +64302,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -64330,7 +64330,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -64358,7 +64358,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -64386,7 +64386,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -64414,7 +64414,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -64442,7 +64442,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -64470,7 +64470,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -64498,7 +64498,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -64525,7 +64525,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -64552,7 +64552,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -64579,7 +64579,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -64606,7 +64606,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -64631,7 +64631,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -64659,7 +64659,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -64685,7 +64685,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -64711,7 +64711,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -64737,7 +64737,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -64760,7 +64760,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -64785,7 +64785,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -64810,7 +64810,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -64836,7 +64836,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -64862,7 +64862,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -64888,7 +64888,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -64910,7 +64910,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -64927,7 +64927,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -64943,7 +64943,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -64976,12 +64976,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -65010,7 +65010,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -65037,7 +65037,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -65064,7 +65064,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -65092,7 +65092,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -65120,7 +65120,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -65176,7 +65176,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -65204,7 +65204,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -65232,7 +65232,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -65260,7 +65260,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -65287,7 +65287,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -65314,7 +65314,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -65341,7 +65341,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -65368,7 +65368,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -65395,7 +65395,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -65423,7 +65423,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -65449,7 +65449,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -65475,7 +65475,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -65501,7 +65501,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -65524,7 +65524,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -65549,7 +65549,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -65574,7 +65574,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -65600,7 +65600,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -65626,7 +65626,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -65674,7 +65674,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -65691,7 +65691,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -65707,7 +65707,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -65740,14 +65740,14 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="15"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="4" width="8.703125" style="15"/>
+    <col min="5" max="5" width="16.29296875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -65776,7 +65776,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -65803,7 +65803,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -65830,7 +65830,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -65858,7 +65858,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -65886,7 +65886,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -65914,7 +65914,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -65942,7 +65942,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -65970,7 +65970,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -65998,7 +65998,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -66026,7 +66026,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -66053,7 +66053,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -66080,7 +66080,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -66107,7 +66107,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -66134,7 +66134,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -66159,7 +66159,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -66185,7 +66185,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -66213,7 +66213,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -66241,7 +66241,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -66269,7 +66269,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -66296,7 +66296,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -66323,7 +66323,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -66350,7 +66350,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -66378,7 +66378,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -66406,7 +66406,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -66434,7 +66434,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -66458,7 +66458,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -66475,7 +66475,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -66491,7 +66491,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -66524,9 +66524,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.703125" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -66552,7 +66552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -66578,7 +66578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -66604,7 +66604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -66630,7 +66630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -66656,7 +66656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -66682,7 +66682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -66708,7 +66708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -66734,7 +66734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -66760,7 +66760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -66786,7 +66786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -66812,7 +66812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -66838,7 +66838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -66864,7 +66864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -66890,7 +66890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -66916,7 +66916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -66940,7 +66940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -66966,7 +66966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -66992,7 +66992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -67018,7 +67018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -67042,7 +67042,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -67068,7 +67068,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -67094,7 +67094,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -67120,7 +67120,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -67146,7 +67146,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -67172,7 +67172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -67194,7 +67194,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -67210,7 +67210,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -67224,7 +67224,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -67256,9 +67256,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -67287,7 +67287,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -67313,7 +67313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -67339,7 +67339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -67366,7 +67366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -67393,7 +67393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -67420,7 +67420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -67447,7 +67447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -67474,7 +67474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -67501,7 +67501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -67528,7 +67528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -67554,7 +67554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -67580,7 +67580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -67606,7 +67606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -67630,7 +67630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -67654,7 +67654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -67679,7 +67679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -67706,7 +67706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -67731,7 +67731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -67758,7 +67758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -67784,7 +67784,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -67810,7 +67810,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -67836,7 +67836,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -67863,7 +67863,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -67890,7 +67890,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -67917,7 +67917,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -67940,7 +67940,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -67955,7 +67955,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -67970,7 +67970,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -68002,9 +68002,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -68030,7 +68030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -68056,7 +68056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -68082,7 +68082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -68109,7 +68109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -68136,7 +68136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -68163,7 +68163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -68190,7 +68190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -68217,7 +68217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -68244,7 +68244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -68271,7 +68271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -68297,7 +68297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -68323,7 +68323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -68349,7 +68349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -68375,7 +68375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -68399,7 +68399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -68426,7 +68426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -68453,7 +68453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -68480,7 +68480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -68507,7 +68507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -68533,7 +68533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -68559,7 +68559,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -68585,7 +68585,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -68612,7 +68612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -68639,7 +68639,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -68666,7 +68666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -68689,7 +68689,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -68706,7 +68706,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -68721,7 +68721,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -68753,9 +68753,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -68784,7 +68784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -68810,7 +68810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -68836,7 +68836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -68863,7 +68863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -68890,7 +68890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -68917,7 +68917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -68944,7 +68944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -68971,7 +68971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -68998,7 +68998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -69025,7 +69025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -69051,7 +69051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -69077,7 +69077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -69103,7 +69103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -69129,7 +69129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -69155,7 +69155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -69180,7 +69180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -69207,7 +69207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -69234,7 +69234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -69261,7 +69261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -69285,7 +69285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -69312,7 +69312,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -69338,7 +69338,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -69365,7 +69365,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -69392,7 +69392,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -69419,7 +69419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -69442,7 +69442,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -69459,7 +69459,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -69474,7 +69474,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -69506,9 +69506,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -69537,7 +69537,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -69564,7 +69564,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -69591,7 +69591,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -69619,7 +69619,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -69647,7 +69647,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -69675,7 +69675,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -69703,7 +69703,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -69731,7 +69731,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -69759,7 +69759,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -69787,7 +69787,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -69814,7 +69814,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -69841,7 +69841,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -69868,7 +69868,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -69895,7 +69895,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -69922,7 +69922,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -69948,7 +69948,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -69976,7 +69976,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -70004,7 +70004,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -70032,7 +70032,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -70057,7 +70057,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -70085,7 +70085,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -70112,7 +70112,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -70140,7 +70140,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -70168,7 +70168,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -70196,7 +70196,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -70220,7 +70220,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -70238,7 +70238,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -70254,7 +70254,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -70287,9 +70287,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -70318,7 +70318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -70344,7 +70344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -70370,7 +70370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -70397,7 +70397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -70424,7 +70424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -70451,7 +70451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -70478,7 +70478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -70505,7 +70505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -70532,7 +70532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -70559,7 +70559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -70585,7 +70585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -70611,7 +70611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -70637,7 +70637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -70661,7 +70661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -70685,7 +70685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -70710,7 +70710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -70737,7 +70737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -70764,7 +70764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -70791,7 +70791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -70815,7 +70815,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -70841,7 +70841,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -70867,7 +70867,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -70894,7 +70894,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -70921,7 +70921,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -70971,7 +70971,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -70986,7 +70986,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -71001,7 +71001,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -71033,9 +71033,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -71064,7 +71064,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -71091,7 +71091,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -71118,7 +71118,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -71146,7 +71146,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -71174,7 +71174,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -71202,7 +71202,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -71230,7 +71230,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -71258,7 +71258,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -71286,7 +71286,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -71314,7 +71314,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -71341,7 +71341,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -71368,7 +71368,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -71395,7 +71395,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -71422,7 +71422,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -71449,7 +71449,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -71477,7 +71477,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -71505,7 +71505,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -71533,7 +71533,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -71561,7 +71561,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -71586,7 +71586,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -71614,7 +71614,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -71641,7 +71641,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -71669,7 +71669,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -71697,7 +71697,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -71725,7 +71725,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -71749,7 +71749,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -71767,7 +71767,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -71783,7 +71783,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -71816,9 +71816,9 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -71847,7 +71847,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -71874,7 +71874,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -71901,7 +71901,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -71929,7 +71929,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -71957,7 +71957,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -71985,7 +71985,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -72013,7 +72013,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -72041,7 +72041,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -72069,7 +72069,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -72097,7 +72097,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -72124,7 +72124,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -72151,7 +72151,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -72178,7 +72178,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -72205,7 +72205,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -72232,7 +72232,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -72260,7 +72260,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -72286,7 +72286,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -72312,7 +72312,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -72338,7 +72338,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -72361,7 +72361,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -72387,7 +72387,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -72412,7 +72412,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -72438,7 +72438,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -72464,7 +72464,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -72490,7 +72490,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -72512,7 +72512,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -72528,7 +72528,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -72544,7 +72544,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -72577,9 +72577,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -72608,7 +72608,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -72634,7 +72634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -72660,7 +72660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -72687,7 +72687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -72714,7 +72714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -72741,7 +72741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -72768,7 +72768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -72795,7 +72795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -72822,7 +72822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -72849,7 +72849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -72875,7 +72875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -72901,7 +72901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -72927,7 +72927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -72951,7 +72951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -72975,7 +72975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -73000,7 +73000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -73027,7 +73027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -73054,7 +73054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -73081,7 +73081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -73107,7 +73107,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -73133,7 +73133,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -73159,7 +73159,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -73186,7 +73186,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -73213,7 +73213,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -73240,7 +73240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -73263,7 +73263,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -73278,7 +73278,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -73293,7 +73293,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -73328,7 +73328,7 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -74172,7 +74172,7 @@
       <selection activeCell="F17" sqref="F17:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -75000,7 +75000,7 @@
       <selection activeCell="C12" sqref="C12:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -75846,7 +75846,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">

--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1997C0A9-F02F-44D8-995A-C011D998B0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A31B8-0233-4811-9530-D34D041C9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="85" activeTab="90" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12058" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12059" uniqueCount="421">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -887,9 +887,6 @@
     <t>Animalus Ziegenbock</t>
   </si>
   <si>
-    <t>Kleinschild</t>
-  </si>
-  <si>
     <t>Hellebarde</t>
   </si>
   <si>
@@ -1340,9 +1337,6 @@
     <t>Streitkolben, Schwert,Axt</t>
   </si>
   <si>
-    <t>LeichterSchild,Schild, Faust</t>
-  </si>
-  <si>
     <t>Hellebarde, Großschwert,Großaxt, Schwert,Axt</t>
   </si>
   <si>
@@ -1364,12 +1358,6 @@
     <t>Schild, LeichterSchild</t>
   </si>
   <si>
-    <t>Faust,LeichterSchild,Schild</t>
-  </si>
-  <si>
-    <t>Reitspinne</t>
-  </si>
-  <si>
     <t>Schwert,Axt,Knüppel,Streitkolben,Speer</t>
   </si>
   <si>
@@ -1380,6 +1368,33 @@
   </si>
   <si>
     <t>Geron Arnes</t>
+  </si>
+  <si>
+    <t>Hraggstahl</t>
+  </si>
+  <si>
+    <t>Reitspinne mittel</t>
+  </si>
+  <si>
+    <t>Reitspinne groß</t>
+  </si>
+  <si>
+    <t>Faust,Leichter Schild,Schild</t>
+  </si>
+  <si>
+    <t>Leichter Schild,Schild, Faust</t>
+  </si>
+  <si>
+    <t>Reitspinne klein</t>
+  </si>
+  <si>
+    <t>Armbrust,Bogen, Faust,Faust</t>
+  </si>
+  <si>
+    <t>Dolch, Axt,Faust</t>
+  </si>
+  <si>
+    <t>Schwert,Axt,Knüppel,Streitkolben, Speer,Faust,Faust</t>
   </si>
 </sst>
 </file>
@@ -2240,34 +2255,34 @@
     </row>
     <row r="41" spans="1:2" ht="13.2">
       <c r="A41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.2">
       <c r="A42" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.2">
       <c r="A43" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.2">
       <c r="A44" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.2">
@@ -2748,7 +2763,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -2784,7 +2799,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -2811,7 +2826,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -2979,7 +2994,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -3008,7 +3023,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -3035,7 +3050,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -3063,7 +3078,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -3091,7 +3106,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -3116,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>228</v>
@@ -3542,7 +3557,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -3579,7 +3594,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -3607,7 +3622,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -3635,7 +3650,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -3664,7 +3679,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -3775,7 +3790,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3802,7 +3817,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -3828,7 +3843,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -3855,7 +3870,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -3882,7 +3897,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -3906,7 +3921,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>241</v>
@@ -4369,7 +4384,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -4749,10 +4764,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -5214,7 +5229,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -5251,7 +5266,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -5279,7 +5294,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -5576,10 +5591,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -6039,7 +6054,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -6417,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -6880,7 +6895,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -6917,7 +6932,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -6945,7 +6960,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -7240,7 +7255,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>79</v>
@@ -7701,7 +7716,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -7823,7 +7838,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -7934,7 +7949,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -7961,7 +7976,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -7987,7 +8002,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -8014,7 +8029,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -8041,7 +8056,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -8065,7 +8080,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>77</v>
@@ -8526,7 +8541,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -8904,10 +8919,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -9356,7 +9371,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -9720,10 +9735,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -10143,7 +10158,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -10507,10 +10522,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -10947,7 +10962,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>29</v>
@@ -10984,7 +10999,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -11012,7 +11027,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -11067,7 +11082,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -11178,7 +11193,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -11235,7 +11250,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -11264,7 +11279,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -11319,10 +11334,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -11771,7 +11786,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -12133,10 +12148,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -12562,7 +12577,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -12599,7 +12614,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -12627,7 +12642,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -12684,7 +12699,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -12795,7 +12810,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -12822,7 +12837,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -12848,7 +12863,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -12875,7 +12890,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -12902,7 +12917,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -12926,7 +12941,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -13389,7 +13404,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -13426,7 +13441,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -13618,7 +13633,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -13645,7 +13660,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -13671,7 +13686,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -13698,7 +13713,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -13727,7 +13742,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -13751,7 +13766,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>73</v>
@@ -14212,7 +14227,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>26</v>
@@ -14249,7 +14264,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -14589,10 +14604,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -15052,7 +15067,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -15089,7 +15104,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -15117,7 +15132,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -15283,7 +15298,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -15310,7 +15325,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -15336,7 +15351,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -15363,7 +15378,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -15390,7 +15405,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -15414,10 +15429,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -15875,7 +15890,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>24</v>
@@ -15912,7 +15927,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -15940,7 +15955,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -15968,7 +15983,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -15997,7 +16012,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -16108,7 +16123,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -16135,7 +16150,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -16161,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -16188,7 +16203,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -16215,7 +16230,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -16239,7 +16254,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>69</v>
@@ -16698,7 +16713,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -16735,7 +16750,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -17056,7 +17071,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>67</v>
@@ -17520,7 +17535,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -17557,7 +17572,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -17585,7 +17600,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -17640,7 +17655,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -17751,7 +17766,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -17778,7 +17793,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -17804,7 +17819,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -17831,7 +17846,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -17858,7 +17873,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -17882,7 +17897,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -18343,7 +18358,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -18380,7 +18395,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -18704,7 +18719,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>63</v>
@@ -19165,7 +19180,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>30</v>
@@ -19202,7 +19217,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -19523,7 +19538,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>61</v>
@@ -19963,7 +19978,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -20024,7 +20039,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -20164,7 +20179,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -20312,7 +20327,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -20353,7 +20368,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -20735,7 +20750,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -20772,7 +20787,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -20966,7 +20981,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -20993,7 +21008,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -21019,7 +21034,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -21046,7 +21061,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -21073,7 +21088,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -21097,7 +21112,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>59</v>
@@ -21558,7 +21573,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -21595,7 +21610,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -21623,7 +21638,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -21678,7 +21693,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -21789,7 +21804,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -21816,7 +21831,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -21842,7 +21857,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -21869,7 +21884,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -21896,7 +21911,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -21920,7 +21935,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>57</v>
@@ -22381,7 +22396,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -22418,7 +22433,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -22446,7 +22461,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -22501,7 +22516,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -22743,7 +22758,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>55</v>
@@ -23206,7 +23221,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>17</v>
@@ -23243,7 +23258,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -23299,7 +23314,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -23570,10 +23585,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -24019,7 +24034,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>17</v>
@@ -24055,7 +24070,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -24082,7 +24097,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -24137,7 +24152,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -24370,7 +24385,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>53</v>
@@ -24817,7 +24832,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>17</v>
@@ -24854,7 +24869,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -24882,7 +24897,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -25181,7 +25196,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>53</v>
@@ -25642,7 +25657,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -25679,7 +25694,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -25707,7 +25722,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -25762,7 +25777,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -25873,7 +25888,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -25900,7 +25915,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -25926,7 +25941,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -25953,7 +25968,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -25980,7 +25995,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -26004,7 +26019,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>51</v>
@@ -26465,7 +26480,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -26502,7 +26517,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -26530,7 +26545,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -26585,7 +26600,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -26704,7 +26719,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -26733,7 +26748,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -26761,7 +26776,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -26790,7 +26805,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -26819,7 +26834,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -26845,7 +26860,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>224</v>
@@ -27310,7 +27325,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -27347,7 +27362,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -27375,7 +27390,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -27432,7 +27447,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -27543,7 +27558,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -27570,7 +27585,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -27596,7 +27611,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -27623,7 +27638,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -27650,7 +27665,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -27674,7 +27689,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>49</v>
@@ -28137,7 +28152,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -28174,7 +28189,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -28202,7 +28217,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -28259,7 +28274,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -28370,7 +28385,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -28397,7 +28412,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -28423,7 +28438,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -28450,7 +28465,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -28477,7 +28492,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -28501,10 +28516,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -28951,7 +28966,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -28987,7 +29002,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -29014,7 +29029,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -29041,7 +29056,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -29176,7 +29191,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -29205,7 +29220,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -29232,7 +29247,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -29260,7 +29275,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -29288,7 +29303,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -29313,7 +29328,7 @@
         <v>7.5</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>238</v>
@@ -29739,7 +29754,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -30104,10 +30119,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -30565,7 +30580,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -30928,7 +30943,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>11</v>
@@ -31389,7 +31404,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>44</v>
@@ -31751,7 +31766,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>9</v>
@@ -32212,7 +32227,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>32</v>
@@ -32249,7 +32264,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -32277,7 +32292,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -32305,7 +32320,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -32443,7 +32458,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -32470,7 +32485,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -32496,7 +32511,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -32523,7 +32538,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -32550,7 +32565,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -32574,7 +32589,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>7</v>
@@ -33035,7 +33050,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -33072,7 +33087,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -33266,7 +33281,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -33293,7 +33308,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -33319,7 +33334,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -33346,7 +33361,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -33373,7 +33388,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -33397,10 +33412,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -33858,7 +33873,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -33895,7 +33910,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -33951,7 +33966,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -34089,7 +34104,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -34116,7 +34131,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -34142,7 +34157,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -34169,7 +34184,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -34196,7 +34211,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -34220,10 +34235,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -34681,7 +34696,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -34718,7 +34733,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -34746,7 +34761,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -34912,7 +34927,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -34939,7 +34954,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -34965,7 +34980,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -34992,7 +35007,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -35019,7 +35034,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -35043,7 +35058,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>220</v>
@@ -35504,7 +35519,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -35541,7 +35556,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -35569,7 +35584,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -35735,7 +35750,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -35762,7 +35777,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -35788,7 +35803,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -35815,7 +35830,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -35842,7 +35857,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -35866,7 +35881,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>3</v>
@@ -36327,7 +36342,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -36364,7 +36379,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -36392,7 +36407,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -36558,7 +36573,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -36585,7 +36600,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -36611,7 +36626,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -36638,7 +36653,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -36665,7 +36680,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -36689,7 +36704,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>45</v>
@@ -37150,7 +37165,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -37187,7 +37202,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -37243,7 +37258,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -37272,7 +37287,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -37383,7 +37398,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -37410,7 +37425,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -37436,7 +37451,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -37463,7 +37478,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -37490,7 +37505,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -37514,7 +37529,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>43</v>
@@ -37961,7 +37976,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>23</v>
@@ -37997,7 +38012,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -38024,7 +38039,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -38186,7 +38201,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -38215,7 +38230,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -38242,7 +38257,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -38270,7 +38285,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -38298,7 +38313,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -38323,7 +38338,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>236</v>
@@ -38749,7 +38764,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -38814,7 +38829,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -38978,7 +38993,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -39005,7 +39020,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -39031,7 +39046,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -39058,7 +39073,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -39085,7 +39100,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -39109,10 +39124,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -39570,7 +39585,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -39607,7 +39622,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -39635,7 +39650,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -39692,7 +39707,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -39803,7 +39818,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -39830,7 +39845,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -39856,7 +39871,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -39883,7 +39898,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -39910,7 +39925,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -39934,7 +39949,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>41</v>
@@ -40395,7 +40410,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -40432,7 +40447,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -40626,7 +40641,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -40653,7 +40668,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -40679,7 +40694,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -40706,7 +40721,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -40733,7 +40748,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -40757,7 +40772,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>39</v>
@@ -41218,7 +41233,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -41574,7 +41589,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>37</v>
@@ -42038,7 +42053,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>44</v>
@@ -42075,7 +42090,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -42103,7 +42118,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -42399,7 +42414,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>35</v>
@@ -42854,7 +42869,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>26</v>
@@ -42891,7 +42906,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -43212,7 +43227,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>15</v>
@@ -43673,7 +43688,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -44048,7 +44063,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>34</v>
@@ -44511,7 +44526,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -44885,7 +44900,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>31</v>
@@ -45348,7 +45363,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -45385,7 +45400,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -45413,7 +45428,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -45441,7 +45456,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -45579,7 +45594,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -45606,7 +45621,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -45632,7 +45647,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -45659,7 +45674,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -45686,7 +45701,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -45710,7 +45725,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>22</v>
@@ -45840,8 +45855,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -46171,7 +46186,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -46208,7 +46223,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -46236,7 +46251,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -46264,7 +46279,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -46293,7 +46308,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -46404,7 +46419,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -46431,7 +46446,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -46457,7 +46472,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -46484,7 +46499,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -46511,7 +46526,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -46535,7 +46550,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>20</v>
@@ -46577,7 +46592,9 @@
       <c r="E27" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
@@ -46982,7 +46999,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -47018,7 +47035,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -47072,7 +47089,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -47207,7 +47224,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -47236,7 +47253,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -47263,7 +47280,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -47291,7 +47308,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -47319,7 +47336,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -47344,7 +47361,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>229</v>
@@ -47770,7 +47787,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -47807,7 +47824,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -47835,7 +47852,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -47863,7 +47880,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -47892,7 +47909,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -48003,7 +48020,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -48030,7 +48047,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -48056,7 +48073,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -48083,7 +48100,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -48110,7 +48127,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -48134,7 +48151,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -48588,7 +48605,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="11">
         <v>100</v>
@@ -48960,7 +48977,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>24</v>
@@ -49399,7 +49416,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -49723,7 +49740,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>25</v>
@@ -50118,7 +50135,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -50153,7 +50170,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -50179,7 +50196,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -50230,7 +50247,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -50454,7 +50471,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>29</v>
@@ -50853,7 +50870,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -50888,7 +50905,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -50914,7 +50931,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -50965,7 +50982,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -51189,7 +51206,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>215</v>
@@ -51587,7 +51604,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -51622,7 +51639,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -51648,7 +51665,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -51699,7 +51716,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -51923,7 +51940,7 @@
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>27</v>
@@ -52321,7 +52338,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -52661,7 +52678,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -53059,7 +53076,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -53094,7 +53111,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -53120,7 +53137,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -53171,7 +53188,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -53274,7 +53291,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
@@ -53299,7 +53316,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
@@ -53323,7 +53340,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
@@ -53348,7 +53365,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
@@ -53373,7 +53390,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
@@ -53395,7 +53412,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>222</v>
@@ -53793,7 +53810,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -53828,7 +53845,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -53854,7 +53871,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -53905,7 +53922,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -54008,7 +54025,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
@@ -54033,7 +54050,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
@@ -54057,7 +54074,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
@@ -54082,7 +54099,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
@@ -54107,7 +54124,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
@@ -54129,7 +54146,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>218</v>
@@ -54527,7 +54544,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -54562,7 +54579,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -54588,7 +54605,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -54614,7 +54631,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -54744,7 +54761,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
@@ -54769,7 +54786,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
@@ -54793,7 +54810,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
@@ -54818,7 +54835,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
@@ -54843,7 +54860,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
@@ -54865,10 +54882,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
@@ -55270,7 +55287,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -55306,7 +55323,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -55333,7 +55350,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -55501,7 +55518,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -55530,7 +55547,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -55557,7 +55574,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -55585,7 +55602,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -55613,7 +55630,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -55638,7 +55655,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>232</v>
@@ -56037,7 +56054,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -56367,7 +56384,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>32</v>
@@ -56786,7 +56803,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>30</v>
@@ -56851,7 +56868,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -57003,7 +57020,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -57150,7 +57167,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -57602,7 +57619,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>35</v>
@@ -57638,7 +57655,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -57665,7 +57682,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>140</v>
@@ -57825,7 +57842,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -57850,7 +57867,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -57875,7 +57892,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -57901,7 +57918,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -57927,7 +57944,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -57950,7 +57967,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -58367,7 +58384,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -58403,7 +58420,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -58430,7 +58447,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>140</v>
@@ -58457,7 +58474,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>145</v>
@@ -58485,7 +58502,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -58592,7 +58609,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -58617,7 +58634,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -58642,7 +58659,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -58668,7 +58685,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -58694,7 +58711,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -58717,7 +58734,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>53</v>
@@ -59131,7 +59148,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -59167,7 +59184,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -59476,10 +59493,10 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -59890,7 +59907,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>25</v>
@@ -60235,7 +60252,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>61</v>
@@ -60327,7 +60344,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -60649,7 +60666,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>35</v>
@@ -61015,7 +61032,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -61109,7 +61126,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -61431,7 +61448,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>35</v>
@@ -61521,7 +61538,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>145</v>
@@ -61799,7 +61816,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -61893,7 +61910,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -62215,7 +62232,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>30</v>
@@ -62333,7 +62350,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -62583,7 +62600,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -63006,7 +63023,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -63042,7 +63059,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -63122,7 +63139,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -63229,7 +63246,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -63254,7 +63271,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -63279,7 +63296,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -63305,7 +63322,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -63331,7 +63348,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -63354,10 +63371,10 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -63765,7 +63782,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -63801,7 +63818,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -63828,7 +63845,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -63855,7 +63872,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -63996,7 +64013,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -64025,7 +64042,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -64052,7 +64069,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -64080,7 +64097,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -64108,7 +64125,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -64133,7 +64150,7 @@
         <v>7.5</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>226</v>
@@ -64226,7 +64243,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -64548,7 +64565,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -64584,7 +64601,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -64666,7 +64683,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -64773,7 +64790,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -64798,7 +64815,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -64823,7 +64840,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -64849,7 +64866,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -64875,7 +64892,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -64898,10 +64915,10 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -65314,7 +65331,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -65527,7 +65544,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -65680,7 +65697,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -66073,7 +66090,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -66419,7 +66436,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -66815,7 +66832,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>31</v>
@@ -67164,10 +67181,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.4">
@@ -67558,7 +67575,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -67913,7 +67930,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -68312,7 +68329,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -68666,7 +68683,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>55</v>
@@ -69075,7 +69092,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -69442,7 +69459,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>55</v>
@@ -69846,7 +69863,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -70195,7 +70212,7 @@
         <v>10.5</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>77</v>
@@ -70602,7 +70619,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -70971,7 +70988,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -71375,7 +71392,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -71578,7 +71595,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -71726,7 +71743,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>77</v>
@@ -72133,7 +72150,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -72169,7 +72186,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -72196,7 +72213,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -72223,7 +72240,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -72251,7 +72268,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -72358,7 +72375,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -72384,7 +72401,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -72409,7 +72426,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -72435,7 +72452,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -72461,7 +72478,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -72484,7 +72501,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>234</v>
@@ -72575,7 +72592,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -72897,7 +72914,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -72933,7 +72950,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -72960,7 +72977,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>140</v>
@@ -72987,7 +73004,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>145</v>
@@ -73015,7 +73032,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -73122,7 +73139,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -73147,7 +73164,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -73172,7 +73189,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -73198,7 +73215,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -73224,7 +73241,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -73247,7 +73264,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>57</v>
@@ -73338,8 +73355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F082A-4349-4A2F-ABFF-52612BC07FFC}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -73475,7 +73492,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>103</v>
@@ -73667,7 +73684,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -73876,7 +73893,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -74017,7 +74034,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>57</v>
@@ -74107,7 +74124,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -74165,7 +74182,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -74181,7 +74198,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>95</v>
@@ -74238,7 +74255,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="10">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>103</v>
@@ -74261,7 +74278,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>106</v>
@@ -74353,7 +74370,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="10">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>119</v>
@@ -74436,7 +74453,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>24</v>
@@ -74473,7 +74490,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>202</v>
+        <v>412</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -74571,7 +74588,7 @@
       </c>
       <c r="B17" s="10">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>155</v>
@@ -74657,7 +74674,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -74817,7 +74834,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>69</v>
@@ -75279,7 +75296,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -75316,7 +75333,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -75344,7 +75361,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -75372,7 +75389,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -75401,7 +75418,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -75512,7 +75529,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -75539,7 +75556,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -75565,7 +75582,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -75592,7 +75609,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -75619,7 +75636,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -75643,10 +75660,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -76107,7 +76124,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -76487,7 +76504,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -76932,7 +76949,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -77287,7 +77304,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -77377,8 +77394,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -77708,7 +77725,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -77745,7 +77762,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -77925,7 +77942,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -78072,7 +78089,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -78115,7 +78132,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -78200,7 +78217,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -78530,7 +78547,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -78567,7 +78584,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -78595,7 +78612,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -78623,7 +78640,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -78652,7 +78669,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -78763,7 +78780,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -78790,7 +78807,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -78816,7 +78833,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -78843,7 +78860,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -78870,7 +78887,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -78894,7 +78911,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -78937,7 +78954,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -79022,7 +79039,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -79352,7 +79369,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -79389,7 +79406,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -79417,7 +79434,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -79445,7 +79462,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -79474,7 +79491,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -79585,7 +79602,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -79612,7 +79629,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -79638,7 +79655,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -79665,7 +79682,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -79692,7 +79709,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -79716,7 +79733,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -79759,7 +79776,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>

--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A31B8-0233-4811-9530-D34D041C9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456F898A-9FB8-4C29-B0F0-A580B7AD13B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="77" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -36012,7 +36012,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -45856,7 +45856,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -78217,7 +78217,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -78291,7 +78291,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>95</v>
@@ -78348,7 +78348,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>103</v>
@@ -78406,7 +78406,7 @@
         <v>110</v>
       </c>
       <c r="D7" s="10">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>111</v>
@@ -79039,7 +79039,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -79113,7 +79113,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>95</v>
@@ -79228,7 +79228,7 @@
         <v>110</v>
       </c>
       <c r="D7" s="10">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>111</v>

--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE00AAE-619F-4E23-884D-1E67C2B47B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246AA4ED-B892-4FE8-8201-3C0BAFA6E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="89" activeTab="96" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" firstSheet="89" activeTab="94" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76632,8 +76632,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -76806,7 +76806,7 @@
         <v>108</v>
       </c>
       <c r="H6" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -76835,7 +76835,7 @@
         <v>112</v>
       </c>
       <c r="H7" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -76864,7 +76864,7 @@
         <v>116</v>
       </c>
       <c r="H8" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -76922,7 +76922,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -76950,7 +76950,7 @@
         <v>128</v>
       </c>
       <c r="H11" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -76978,7 +76978,7 @@
         <v>131</v>
       </c>
       <c r="H12" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -77006,7 +77006,7 @@
         <v>135</v>
       </c>
       <c r="H13" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -77034,7 +77034,7 @@
         <v>140</v>
       </c>
       <c r="H14" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -77062,7 +77062,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -77089,7 +77089,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -77116,7 +77116,7 @@
         <v>153</v>
       </c>
       <c r="H17" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -77143,7 +77143,7 @@
         <v>157</v>
       </c>
       <c r="H18" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -77170,7 +77170,7 @@
         <v>161</v>
       </c>
       <c r="H19" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -78276,7 +78276,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>

--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246AA4ED-B892-4FE8-8201-3C0BAFA6E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FFA47-0227-4ED3-BF0D-CED5A90BEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" firstSheet="89" activeTab="94" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11937" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11936" uniqueCount="421">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -12242,8 +12242,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12657,7 +12657,7 @@
         <v>141</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>147</v>
@@ -76632,8 +76632,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -77055,9 +77055,7 @@
       <c r="E15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
         <v>145</v>
       </c>

--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D400F-0B64-4867-AE77-93E440F3352F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B81C11-D575-47F0-861D-627C7230DDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" tabRatio="985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" tabRatio="985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -2384,7 +2384,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3014,7 +3014,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -3214,7 +3214,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3842,7 +3842,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4042,7 +4042,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4680,7 +4680,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4886,7 +4886,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -5512,7 +5512,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -5710,7 +5710,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -6340,7 +6340,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -6538,7 +6538,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -7176,7 +7176,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -7379,7 +7379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -8173,7 +8173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -8964,7 +8964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -9748,7 +9748,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -10381,7 +10381,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -10582,7 +10582,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11216,7 +11216,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B22:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -11422,7 +11422,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -12048,7 +12048,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -12248,7 +12248,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -12884,7 +12884,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -13090,7 +13090,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -13718,7 +13718,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -13916,7 +13916,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -14546,7 +14546,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -14744,7 +14744,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -15366,7 +15366,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -15564,7 +15564,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -16195,7 +16195,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -16393,7 +16393,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -17019,7 +17019,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -17217,7 +17217,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -17841,7 +17841,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -18039,7 +18039,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -18667,7 +18667,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -18865,7 +18865,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -19493,7 +19493,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>40</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -19688,7 +19688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -20304,7 +20304,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>40</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -20471,7 +20471,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -21099,7 +21099,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -21299,7 +21299,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -21929,7 +21929,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -22126,7 +22126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -22734,7 +22734,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -22916,7 +22916,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -23546,7 +23546,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -23744,7 +23744,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -24372,7 +24372,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -24570,7 +24570,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -25210,7 +25210,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -25418,7 +25418,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -26048,7 +26048,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -26248,7 +26248,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -26878,7 +26878,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -27076,7 +27076,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -27706,7 +27706,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -27904,7 +27904,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -28532,7 +28532,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -28727,7 +28727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -29340,7 +29340,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -29507,7 +29507,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -30135,7 +30135,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -30333,7 +30333,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -30961,7 +30961,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -31159,7 +31159,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -31787,7 +31787,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -31985,7 +31985,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -32613,7 +32613,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -32811,7 +32811,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -33439,7 +33439,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -33637,7 +33637,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -34265,7 +34265,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -34463,7 +34463,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -35091,7 +35091,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -35289,7 +35289,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -35919,7 +35919,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -36117,7 +36117,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -36743,7 +36743,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -36941,7 +36941,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -37571,7 +37571,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -37766,7 +37766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -38379,7 +38379,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -38546,7 +38546,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -39174,7 +39174,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -39372,7 +39372,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -39994,7 +39994,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -40189,7 +40189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68524CE9-9936-4B3B-A44A-0462019A7B7F}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -40799,7 +40799,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -40982,7 +40982,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -41611,7 +41611,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -41809,7 +41809,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -42433,7 +42433,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -42631,7 +42631,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -43265,7 +43265,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -43468,7 +43468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E06392-9CD4-4EC2-B2C2-88A0D36D538D}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -44086,7 +44086,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -44266,7 +44266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C80EF1-E6A2-4E64-AC21-290C14D85DA3}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -44906,7 +44906,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -45104,7 +45104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825372D8-41AC-469B-A506-18F730FA9C04}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -45742,7 +45742,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -45940,7 +45940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C8BF74-8B93-4365-AB57-AF9C653F3224}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -46580,7 +46580,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -46778,7 +46778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -47397,7 +47397,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -47561,7 +47561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2036EAE3-7989-4DD5-86DC-561D5D10351D}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -48179,7 +48179,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -48359,7 +48359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C63E136-A07C-4041-8ED1-B037AED346A3}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -48995,7 +48995,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -49196,7 +49196,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -49830,7 +49830,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -50036,7 +50036,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -50664,7 +50664,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -50862,7 +50862,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -51492,7 +51492,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -51692,7 +51692,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -52322,7 +52322,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -52520,7 +52520,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -53355,7 +53355,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -53928,7 +53928,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -54083,7 +54083,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -54668,7 +54668,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -54818,7 +54818,7 @@
   <sheetPr codeName="Tabelle46"/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -55406,7 +55406,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -55555,7 +55555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -56174,7 +56174,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -56341,7 +56341,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -56926,7 +56926,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -57078,7 +57078,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -57663,7 +57663,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -57815,7 +57815,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -58400,7 +58400,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -58552,7 +58552,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -59139,7 +59139,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -59291,7 +59291,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -59870,7 +59870,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -60019,7 +60019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -60787,7 +60787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -61558,7 +61558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -62163,7 +62163,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="13">
-        <f t="shared" ref="B22:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -62320,7 +62320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -62925,7 +62925,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="13">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -63082,7 +63082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -63855,7 +63855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -64463,7 +64463,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -64619,7 +64619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -65390,7 +65390,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -66020,7 +66020,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -66221,7 +66221,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -66861,7 +66861,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -67070,7 +67070,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -67667,7 +67667,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -67827,7 +67827,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -68457,7 +68457,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -68652,7 +68652,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -69282,7 +69282,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>40</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -69474,7 +69474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -70093,7 +70093,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" ref="B21:B28" si="0">F4</f>
+        <f t="shared" ref="B23:B28" si="0">F4</f>
         <v>40</v>
       </c>
       <c r="C23" s="5" t="s">

--- a/Container/Data/Profiles.xlsx
+++ b/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4955308-261D-4C3C-8492-DDD97A4F7D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA0129-53A2-410B-8FDA-AC7F8076DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="985" firstSheet="73" activeTab="77" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="985" firstSheet="49" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -38531,8 +38531,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -38717,7 +38717,7 @@
         <v>149</v>
       </c>
       <c r="B7" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>150</v>
@@ -38805,7 +38805,7 @@
       </c>
       <c r="B10" s="7">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>162</v>
@@ -38968,7 +38968,7 @@
       </c>
       <c r="B16" s="7">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>189</v>
@@ -62241,7 +62241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF08ACE-0253-401C-B4A9-2539BD139085}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
